--- a/medicine/Psychotrope/Viticulture_en_Australie/Viticulture_en_Australie.xlsx
+++ b/medicine/Psychotrope/Viticulture_en_Australie/Viticulture_en_Australie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Introduite en 1788, en Nouvelle-Galles du Sud, la vigne se répandit eu XIXe siècle dans beaucoup de régions du pays, mais le vignoble demeure concentré dans le sud-est et l'extrême sud, des régions ensoleillées mais, relativement fraîches.
-La viticulture australienne est en 2005, la quatrième exportatrice avec une croissance de 80 % lors des cinq dernières années. Les Australiens semblent avoir assimilé mieux que quiconque les règles du marketing. Leurs vins d'exportation qui représentent 60 % du volume[1], dont la production est à 80 % dans les mains de quatre grandes entreprises vinicoles, sont issus majoritairement de mélanges en provenances des diverses régions de production. La concentration capitalistique dans ce secteur atteint, comme en Californie un niveau inégalé. Cependant, des domaines de plus petites tailles et familiaux, bien qu'en petit nombre, produisent eux des vins de qualité.
+La viticulture australienne est en 2005, la quatrième exportatrice avec une croissance de 80 % lors des cinq dernières années. Les Australiens semblent avoir assimilé mieux que quiconque les règles du marketing. Leurs vins d'exportation qui représentent 60 % du volume, dont la production est à 80 % dans les mains de quatre grandes entreprises vinicoles, sont issus majoritairement de mélanges en provenances des diverses régions de production. La concentration capitalistique dans ce secteur atteint, comme en Californie un niveau inégalé. Cependant, des domaines de plus petites tailles et familiaux, bien qu'en petit nombre, produisent eux des vins de qualité.
 </t>
         </is>
       </c>
@@ -512,11 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La flotte, commandée par l'anglais Arthur Phillip, qui accoste le 26 janvier 1788 à l'emplacement de la ville actuelle de Sydney, transporte diverses espèces de plantes que les colons vont essayer d'acclimater. Les premiers pieds de vignes, plantés à l'emplacement du jardin botanique de Sydney ne produisent pas de vin car souffrant de l'humidité. Ils s'acclimatent toutefois à une trentaine de kilomètres à l'intérieur des terres. En 1791, un vignoble d'un hectare existe à Parramatta, à une vingtaine de kilomètres de Sydney[2].
-Introduction de la syrah en Australie
-En 1831, l'Écossais James Busby, souvent appelé « le père de la viticulture australienne », revint en Europe pour recueillir des boutures de vignes, principalement en France et en Espagne afin d'améliorer le vignoble australien[3]. Il revint avec environ 20 000 pieds de vignes de plus de 500 variétés différentes[2].  Une des variétés collectées était la syrah, bien que Busby ait utilisé deux orthographes fantaisistes Scyras et Ciras.Les boutures furent plantées dans les Jardins botaniques royaux de Sydney, et la vallée Hunter, puis, en 1839, introduite en Australie-Méridionale[4]. Depuis les années 1860, la syrah est devenue une des variétés les plus importantes en Australie. Elle y est désormais aussi appelée Shiraz.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La flotte, commandée par l'anglais Arthur Phillip, qui accoste le 26 janvier 1788 à l'emplacement de la ville actuelle de Sydney, transporte diverses espèces de plantes que les colons vont essayer d'acclimater. Les premiers pieds de vignes, plantés à l'emplacement du jardin botanique de Sydney ne produisent pas de vin car souffrant de l'humidité. Ils s'acclimatent toutefois à une trentaine de kilomètres à l'intérieur des terres. En 1791, un vignoble d'un hectare existe à Parramatta, à une vingtaine de kilomètres de Sydney.
 </t>
         </is>
       </c>
@@ -542,16 +554,125 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Introduction de la syrah en Australie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1831, l'Écossais James Busby, souvent appelé « le père de la viticulture australienne », revint en Europe pour recueillir des boutures de vignes, principalement en France et en Espagne afin d'améliorer le vignoble australien. Il revint avec environ 20 000 pieds de vignes de plus de 500 variétés différentes.  Une des variétés collectées était la syrah, bien que Busby ait utilisé deux orthographes fantaisistes Scyras et Ciras.Les boutures furent plantées dans les Jardins botaniques royaux de Sydney, et la vallée Hunter, puis, en 1839, introduite en Australie-Méridionale. Depuis les années 1860, la syrah est devenue une des variétés les plus importantes en Australie. Elle y est désormais aussi appelée Shiraz.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Australie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Australie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Vignoble australien</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Réparti en six régions, le vignoble est principalement localisé sur les côtes, au Sud-Est, ainsi qu'une région au Sud-Ouest, là où les conditions climatiques sont plus acceptables pour la viticulture. Il existe d'un bout à l'autre une grande variété de terroirs[5],[6].
-Australie-Méridionale
-L'Australie-Méridionale est une région viticole particulièrement sèche, avec 484 mm de précipitations annuelles en moyenne.
-Australie-Occidentale
-Les vignobles sont situés exclusivement dans la pointe Sud de l'Australie-Occidentale (Western Australia), où les précipitations annuelles sont de 759 mm en moyenne, elle est aussi une des plus chaudes, la température atteignant souvent 38 °C en été.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Réparti en six régions, le vignoble est principalement localisé sur les côtes, au Sud-Est, ainsi qu'une région au Sud-Ouest, là où les conditions climatiques sont plus acceptables pour la viticulture. Il existe d'un bout à l'autre une grande variété de terroirs,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Australie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Australie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Vignoble australien</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Australie-Méridionale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Australie-Méridionale est une région viticole particulièrement sèche, avec 484 mm de précipitations annuelles en moyenne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Australie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Australie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Vignoble australien</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Australie-Occidentale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vignobles sont situés exclusivement dans la pointe Sud de l'Australie-Occidentale (Western Australia), où les précipitations annuelles sont de 759 mm en moyenne, elle est aussi une des plus chaudes, la température atteignant souvent 38 °C en été.
 Blackwood valley
 Geographe
 Great Southern
@@ -566,8 +687,43 @@
 Pemberton
 Perth hills
 Swan Valley
-Nouvelle-Galles-du-Sud
-Canberra District
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Australie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Australie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vignoble australien</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nouvelle-Galles-du-Sud</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Canberra District
 Cowra
 Gundagai
 Hastings River
@@ -583,18 +739,88 @@
 Southern Highlands
 Swan Hill (en partie dans la Victoria)
 Tumbarumba
-Tasmanie
-La Tasmanie, île située le plus au sud de l'Australie, comporte des sous-régions viticoles non reconnues officiellement : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Australie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Australie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vignoble australien</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tasmanie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Tasmanie, île située le plus au sud de l'Australie, comporte des sous-régions viticoles non reconnues officiellement : 
 Coal River
 Derwent Valley
 East Coast
 North Coast
 Pipers River
 Tamar Valley
-La Tasmanie a un climat plus frais et le potentiel pour faire des vins très différents que dans le reste du pays. Dans cette région le vignoble est principalement composé de Pinot noir, Chardonnay et Sauvignon blanc, avec quelques petites plantations de Riesling, Pinot gris et Cabernet Sauvignon. Le réchauffement climatique a eu des effets positifs sur la production du vin de Tasmanie, permettant à la plupart des raisins, depuis 2005, d'arriver à une maturité optimale, ce qui permet aux domaines de l'île de produire des vins remarquables[8].
-Son climat frais a fait de la Tasmanie une région privilégiée pour la production de vin mousseux grâce à de nombreux producteurs venus de l'Australie. Même certaines maisons de Champagne comme Moët et Chandon et Louis Roederer utilisent les raisins de Tasmanie pour leurs vins mousseux australiens. La vinification des rieslings de Tasmanie donne des vins qui ont une grande similitude avec les vins de Moselle[8].
-Victoria
-Alpine Valleys
+La Tasmanie a un climat plus frais et le potentiel pour faire des vins très différents que dans le reste du pays. Dans cette région le vignoble est principalement composé de Pinot noir, Chardonnay et Sauvignon blanc, avec quelques petites plantations de Riesling, Pinot gris et Cabernet Sauvignon. Le réchauffement climatique a eu des effets positifs sur la production du vin de Tasmanie, permettant à la plupart des raisins, depuis 2005, d'arriver à une maturité optimale, ce qui permet aux domaines de l'île de produire des vins remarquables.
+Son climat frais a fait de la Tasmanie une région privilégiée pour la production de vin mousseux grâce à de nombreux producteurs venus de l'Australie. Même certaines maisons de Champagne comme Moët et Chandon et Louis Roederer utilisent les raisins de Tasmanie pour leurs vins mousseux australiens. La vinification des rieslings de Tasmanie donne des vins qui ont une grande similitude avec les vins de Moselle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Australie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Australie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble australien</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Alpine Valleys
 Beechworth
 Bendigo
 Geelong
@@ -618,65 +844,69 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Viticulture_en_Australie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Australie</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Australie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Australie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Après une forte croissance, le vignoble australien connait un stabilisation de sa surface depuis le début des années 2000 jusqu'en 2011, et décroit légèrement à depuis cette date.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Viticulture_en_Australie</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Australie</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Australie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Australie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Encépagement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Outre les cépages les plus cultivés en blanc et en rouge dans les tableaux ci-dessus, on peut citer les variétés mineures suivantes, avec leur surface plantée (2007)[11] : 
+Outre les cépages les plus cultivés en blanc et en rouge dans les tableaux ci-dessus, on peut citer les variétés mineures suivantes, avec leur surface plantée (2007) : 
 Gewurztraminer (842 hectares)
 Mourvèdre (795 hectares)
 Chenin blanc (684 hectares)
